--- a/results/I3_N5_M3_T15_C150_DepCentral_s2_P1_res.xlsx
+++ b/results/I3_N5_M3_T15_C150_DepCentral_s2_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>623.6128370161086</v>
+        <v>504.714365082849</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00800013542175293</v>
+        <v>0.0009999275207519531</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.267476848603721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.0659487818552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>331.0200000000082</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>270.08</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -868,7 +813,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -929,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.865489312505037</v>
+        <v>5.134510687494963</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.200658506961251</v>
+        <v>5.799341493038749</v>
       </c>
     </row>
     <row r="5">
@@ -961,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -977,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -985,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,90 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1212,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>192.0400000000012</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -1223,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>177.55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -1234,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>178.1100000000012</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -1245,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>179.6100000000012</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -1256,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>185.0800000000012</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -1267,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>151.0650000000013</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -1278,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>143.15</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
@@ -1289,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>141.6400000000013</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
@@ -1300,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>144.1900000000013</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1311,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>145.6100000000013</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
@@ -1322,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>36.21999999999935</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
@@ -1333,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>39.58999999999935</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
@@ -1344,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>32.85499999999935</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
@@ -1355,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>40.98999999999935</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
@@ -1366,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>41.05</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
@@ -1377,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>142.3899999999997</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23">
@@ -1388,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>152.0799999999997</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24">
@@ -1399,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>135.4249999999997</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25">
@@ -1410,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>151.0399999999997</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26">
@@ -1421,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>148.7249999999997</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
@@ -1432,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>46.62000000000073</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28">
@@ -1443,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>41.47500000000073</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29">
@@ -1454,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.92500000000073</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30">
@@ -1465,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>39.65500000000073</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31">
@@ -1476,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.76000000000073</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32">
@@ -1487,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>142.3899999999997</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33">
@@ -1498,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>152.0799999999997</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34">
@@ -1509,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>135.4249999999997</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35">
@@ -1520,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>151.0399999999997</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36">
@@ -1531,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>148.7249999999997</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37">
@@ -1542,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>192.0400000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1553,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>177.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1564,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>178.1100000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1575,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>179.6100000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1586,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>185.0800000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1597,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43">
@@ -1608,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44">
@@ -1619,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45">
@@ -1630,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46">
@@ -1641,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -1699,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.079999999999703</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -1710,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1721,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1.039999999999715</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -1732,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -1743,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>42.04000000000116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1754,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>27.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1765,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>28.11000000000118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1776,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>29.61000000000115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1787,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>35.08000000000118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1889,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1900,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1911,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1922,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1933,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1944,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1955,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1966,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1977,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1988,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1999,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.95</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -2010,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.125</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -2021,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>5.005</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2032,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -2043,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>4.27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -2109,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2120,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2131,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2142,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2153,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2167,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2194,7 +2055,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2205,7 +2066,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2216,7 +2077,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2227,7 +2088,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2238,45 +2099,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
         <v>1</v>
       </c>
     </row>
